--- a/Electronica/BILL OF MATERIALS PERIOD I/GETTING STARTED_PERIOD I.xlsx
+++ b/Electronica/BILL OF MATERIALS PERIOD I/GETTING STARTED_PERIOD I.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PROJECTS\AEI PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PROJECTS\AEI PROJECT\AEI_IOT_SHARE\modulo\Electronica\BILL OF MATERIALS PERIOD I\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -392,28 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,42 +407,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -482,12 +446,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,28 +455,70 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,92 +864,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="39">
         <v>17000</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="28"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="12">
         <v>17000</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="4">
@@ -957,39 +957,39 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="23">
-        <v>20000</v>
+      <c r="C8" s="14">
+        <v>40000</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="6">
         <v>27000</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="4">
@@ -997,19 +997,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="6">
         <v>18000</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="4">
@@ -1017,39 +1017,39 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="6">
         <v>10000</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="6">
         <v>12000</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="4">
@@ -1057,51 +1057,51 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="36">
         <f>20.06*F14</f>
         <v>160.47999999999999</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="36" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="39">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -1138,7 +1138,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
@@ -1150,139 +1150,134 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="45" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="6">
         <f>SUM(C5:C12)+(SUM(C14,C19)*3753.8)+C20+C22</f>
-        <v>958172.10640000005</v>
-      </c>
-      <c r="D24" s="13" t="s">
+        <v>978172.10640000005</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="16"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="35"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="35"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D14:D15"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:F1"/>
@@ -1292,6 +1287,11 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
